--- a/230502_demo.xlsx
+++ b/230502_demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17083" uniqueCount="2303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17012" uniqueCount="2303">
   <si>
     <t>Granvil</t>
   </si>
@@ -8463,9 +8463,6 @@
       <c r="S13" t="s">
         <v>2231</v>
       </c>
-      <c r="V13" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z13" t="s">
         <v>2238</v>
       </c>
@@ -9165,9 +9162,6 @@
       <c r="S22" t="s">
         <v>2231</v>
       </c>
-      <c r="V22" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z22" t="s">
         <v>2238</v>
       </c>
@@ -9449,9 +9443,6 @@
       <c r="Q26" t="s">
         <v>2229</v>
       </c>
-      <c r="V26" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z26" t="s">
         <v>2238</v>
       </c>
@@ -9538,9 +9529,6 @@
       <c r="N27" t="s">
         <v>2226</v>
       </c>
-      <c r="V27" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z27" t="s">
         <v>2238</v>
       </c>
@@ -11080,9 +11068,6 @@
       <c r="K48" t="s">
         <v>2223</v>
       </c>
-      <c r="W48" t="s">
-        <v>2235</v>
-      </c>
       <c r="X48" t="s">
         <v>2236</v>
       </c>
@@ -12007,9 +11992,6 @@
       <c r="S60" t="s">
         <v>2231</v>
       </c>
-      <c r="V60" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z60" t="s">
         <v>2238</v>
       </c>
@@ -12297,9 +12279,6 @@
       <c r="N64" t="s">
         <v>2226</v>
       </c>
-      <c r="V64" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z64" t="s">
         <v>2238</v>
       </c>
@@ -12552,9 +12531,6 @@
       <c r="S67" t="s">
         <v>2231</v>
       </c>
-      <c r="V67" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z67" t="s">
         <v>2238</v>
       </c>
@@ -13162,9 +13138,6 @@
       <c r="S75" t="s">
         <v>2231</v>
       </c>
-      <c r="V75" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z75" t="s">
         <v>2238</v>
       </c>
@@ -14162,9 +14135,6 @@
       <c r="S89" t="s">
         <v>2231</v>
       </c>
-      <c r="V89" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z89" t="s">
         <v>2238</v>
       </c>
@@ -16210,9 +16180,6 @@
       <c r="K117" t="s">
         <v>2223</v>
       </c>
-      <c r="W117" t="s">
-        <v>2235</v>
-      </c>
       <c r="AD117" t="s">
         <v>2242</v>
       </c>
@@ -16580,9 +16547,6 @@
       <c r="S122" t="s">
         <v>2231</v>
       </c>
-      <c r="V122" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z122" t="s">
         <v>2238</v>
       </c>
@@ -17448,9 +17412,6 @@
       <c r="L133" t="s">
         <v>2224</v>
       </c>
-      <c r="V133" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z133" t="s">
         <v>2238</v>
       </c>
@@ -18131,9 +18092,6 @@
       <c r="K143" t="s">
         <v>2223</v>
       </c>
-      <c r="W143" t="s">
-        <v>2235</v>
-      </c>
       <c r="BZ143" t="s">
         <v>2284</v>
       </c>
@@ -19246,9 +19204,6 @@
       <c r="L159" t="s">
         <v>2224</v>
       </c>
-      <c r="V159" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z159" t="s">
         <v>2238</v>
       </c>
@@ -20434,9 +20389,6 @@
       <c r="K174" t="s">
         <v>2223</v>
       </c>
-      <c r="W174" t="s">
-        <v>2235</v>
-      </c>
       <c r="X174" t="s">
         <v>2236</v>
       </c>
@@ -20523,9 +20475,6 @@
       <c r="N175" t="s">
         <v>2226</v>
       </c>
-      <c r="V175" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z175" t="s">
         <v>2238</v>
       </c>
@@ -22012,9 +21961,6 @@
       <c r="K195" t="s">
         <v>2223</v>
       </c>
-      <c r="W195" t="s">
-        <v>2235</v>
-      </c>
       <c r="X195" t="s">
         <v>2236</v>
       </c>
@@ -22172,9 +22118,6 @@
       <c r="S197" t="s">
         <v>2231</v>
       </c>
-      <c r="V197" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z197" t="s">
         <v>2238</v>
       </c>
@@ -22252,9 +22195,6 @@
       <c r="Q198" t="s">
         <v>2229</v>
       </c>
-      <c r="V198" t="s">
-        <v>2234</v>
-      </c>
       <c r="AD198" t="s">
         <v>2242</v>
       </c>
@@ -24772,9 +24712,6 @@
       <c r="K231" t="s">
         <v>2223</v>
       </c>
-      <c r="W231" t="s">
-        <v>2235</v>
-      </c>
       <c r="X231" t="s">
         <v>2236</v>
       </c>
@@ -26281,9 +26218,6 @@
       <c r="L252" t="s">
         <v>2224</v>
       </c>
-      <c r="V252" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z252" t="s">
         <v>2238</v>
       </c>
@@ -26565,9 +26499,6 @@
       <c r="Q256" t="s">
         <v>2229</v>
       </c>
-      <c r="W256" t="s">
-        <v>2235</v>
-      </c>
       <c r="AD256" t="s">
         <v>2242</v>
       </c>
@@ -27574,9 +27505,6 @@
       <c r="L270" t="s">
         <v>2224</v>
       </c>
-      <c r="V270" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z270" t="s">
         <v>2238</v>
       </c>
@@ -28218,9 +28146,6 @@
       <c r="N280" t="s">
         <v>2226</v>
       </c>
-      <c r="V280" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z280" t="s">
         <v>2238</v>
       </c>
@@ -29108,9 +29033,6 @@
       <c r="K293" t="s">
         <v>2223</v>
       </c>
-      <c r="W293" t="s">
-        <v>2235</v>
-      </c>
       <c r="BR293" t="s">
         <v>2277</v>
       </c>
@@ -30588,9 +30510,6 @@
       <c r="N313" t="s">
         <v>2226</v>
       </c>
-      <c r="V313" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z313" t="s">
         <v>2238</v>
       </c>
@@ -30798,9 +30717,6 @@
       <c r="K316" t="s">
         <v>2223</v>
       </c>
-      <c r="W316" t="s">
-        <v>2235</v>
-      </c>
       <c r="X316" t="s">
         <v>2236</v>
       </c>
@@ -32570,9 +32486,6 @@
       <c r="K341" t="s">
         <v>2223</v>
       </c>
-      <c r="W341" t="s">
-        <v>2235</v>
-      </c>
       <c r="X341" t="s">
         <v>2236</v>
       </c>
@@ -33014,9 +32927,6 @@
       <c r="S347" t="s">
         <v>2231</v>
       </c>
-      <c r="V347" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z347" t="s">
         <v>2238</v>
       </c>
@@ -34482,9 +34392,6 @@
       <c r="N367" t="s">
         <v>2226</v>
       </c>
-      <c r="V367" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z367" t="s">
         <v>2238</v>
       </c>
@@ -36100,9 +36007,6 @@
       <c r="Q390" t="s">
         <v>2229</v>
       </c>
-      <c r="V390" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z390" t="s">
         <v>2238</v>
       </c>
@@ -41858,9 +41762,6 @@
       <c r="Q467" t="s">
         <v>2229</v>
       </c>
-      <c r="V467" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z467" t="s">
         <v>2238</v>
       </c>
@@ -42432,9 +42333,6 @@
       <c r="N475" t="s">
         <v>2226</v>
       </c>
-      <c r="V475" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z475" t="s">
         <v>2238</v>
       </c>
@@ -43122,9 +43020,6 @@
       <c r="K484" t="s">
         <v>2223</v>
       </c>
-      <c r="W484" t="s">
-        <v>2235</v>
-      </c>
       <c r="X484" t="s">
         <v>2236</v>
       </c>
@@ -44073,9 +43968,6 @@
       <c r="S496" t="s">
         <v>2231</v>
       </c>
-      <c r="V496" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z496" t="s">
         <v>2238</v>
       </c>
@@ -44686,9 +44578,6 @@
       <c r="Q504" t="s">
         <v>2229</v>
       </c>
-      <c r="V504" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z504" t="s">
         <v>2238</v>
       </c>
@@ -44837,9 +44726,6 @@
       <c r="L506" t="s">
         <v>2224</v>
       </c>
-      <c r="V506" t="s">
-        <v>2234</v>
-      </c>
       <c r="AD506" t="s">
         <v>2242</v>
       </c>
@@ -45516,9 +45402,6 @@
       <c r="N517" t="s">
         <v>2226</v>
       </c>
-      <c r="V517" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z517" t="s">
         <v>2238</v>
       </c>
@@ -45881,9 +45764,6 @@
       <c r="S521" t="s">
         <v>2231</v>
       </c>
-      <c r="V521" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z521" t="s">
         <v>2238</v>
       </c>
@@ -47344,9 +47224,6 @@
       <c r="N540" t="s">
         <v>2226</v>
       </c>
-      <c r="V540" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z540" t="s">
         <v>2238</v>
       </c>
@@ -48763,9 +48640,6 @@
       <c r="N561" t="s">
         <v>2226</v>
       </c>
-      <c r="V561" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z561" t="s">
         <v>2238</v>
       </c>
@@ -49533,9 +49407,6 @@
       <c r="L571" t="s">
         <v>2224</v>
       </c>
-      <c r="V571" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z571" t="s">
         <v>2238</v>
       </c>
@@ -50823,9 +50694,6 @@
       <c r="S589" t="s">
         <v>2231</v>
       </c>
-      <c r="V589" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z589" t="s">
         <v>2238</v>
       </c>
@@ -52789,9 +52657,6 @@
       <c r="L615" t="s">
         <v>2224</v>
       </c>
-      <c r="V615" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z615" t="s">
         <v>2238</v>
       </c>
@@ -53127,9 +52992,6 @@
       <c r="S619" t="s">
         <v>2231</v>
       </c>
-      <c r="V619" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z619" t="s">
         <v>2238</v>
       </c>
@@ -57342,9 +57204,6 @@
       <c r="K679" t="s">
         <v>2223</v>
       </c>
-      <c r="W679" t="s">
-        <v>2235</v>
-      </c>
       <c r="X679" t="s">
         <v>2236</v>
       </c>
@@ -58812,9 +58671,6 @@
       <c r="K700" t="s">
         <v>2223</v>
       </c>
-      <c r="W700" t="s">
-        <v>2235</v>
-      </c>
       <c r="X700" t="s">
         <v>2236</v>
       </c>
@@ -59783,9 +59639,6 @@
       <c r="N713" t="s">
         <v>2226</v>
       </c>
-      <c r="V713" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z713" t="s">
         <v>2238</v>
       </c>
@@ -62172,9 +62025,6 @@
       <c r="N748" t="s">
         <v>2226</v>
       </c>
-      <c r="V748" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z748" t="s">
         <v>2238</v>
       </c>
@@ -62840,9 +62690,6 @@
       <c r="S758" t="s">
         <v>2231</v>
       </c>
-      <c r="V758" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z758" t="s">
         <v>2238</v>
       </c>
@@ -62997,9 +62844,6 @@
       <c r="N760" t="s">
         <v>2226</v>
       </c>
-      <c r="V760" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z760" t="s">
         <v>2238</v>
       </c>
@@ -63729,9 +63573,6 @@
       <c r="N769" t="s">
         <v>2226</v>
       </c>
-      <c r="V769" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z769" t="s">
         <v>2238</v>
       </c>
@@ -65543,9 +65384,6 @@
       <c r="N794" t="s">
         <v>2226</v>
       </c>
-      <c r="V794" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z794" t="s">
         <v>2238</v>
       </c>
@@ -65700,9 +65538,6 @@
       <c r="N796" t="s">
         <v>2226</v>
       </c>
-      <c r="V796" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z796" t="s">
         <v>2238</v>
       </c>
@@ -66011,9 +65846,6 @@
       <c r="S800" t="s">
         <v>2231</v>
       </c>
-      <c r="V800" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z800" t="s">
         <v>2238</v>
       </c>
@@ -67272,9 +67104,6 @@
       <c r="L817" t="s">
         <v>2224</v>
       </c>
-      <c r="V817" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z817" t="s">
         <v>2238</v>
       </c>
@@ -68184,9 +68013,6 @@
       <c r="N829" t="s">
         <v>2226</v>
       </c>
-      <c r="V829" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z829" t="s">
         <v>2238</v>
       </c>
@@ -69915,9 +69741,6 @@
       <c r="N853" t="s">
         <v>2226</v>
       </c>
-      <c r="V853" t="s">
-        <v>2234</v>
-      </c>
       <c r="AD853" t="s">
         <v>2242</v>
       </c>
@@ -70919,9 +70742,6 @@
       <c r="S866" t="s">
         <v>2231</v>
       </c>
-      <c r="V866" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z866" t="s">
         <v>2238</v>
       </c>
@@ -71183,9 +71003,6 @@
       <c r="N869" t="s">
         <v>2226</v>
       </c>
-      <c r="V869" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z869" t="s">
         <v>2238</v>
       </c>
@@ -71506,9 +71323,6 @@
       <c r="N873" t="s">
         <v>2226</v>
       </c>
-      <c r="V873" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z873" t="s">
         <v>2238</v>
       </c>
@@ -72120,9 +71934,6 @@
       <c r="S880" t="s">
         <v>2231</v>
       </c>
-      <c r="V880" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z880" t="s">
         <v>2238</v>
       </c>
@@ -73954,9 +73765,6 @@
       <c r="K903" t="s">
         <v>2223</v>
       </c>
-      <c r="W903" t="s">
-        <v>2235</v>
-      </c>
       <c r="AD903" t="s">
         <v>2242</v>
       </c>
@@ -74105,9 +73913,6 @@
       <c r="L905" t="s">
         <v>2224</v>
       </c>
-      <c r="V905" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z905" t="s">
         <v>2238</v>
       </c>
@@ -74499,9 +74304,6 @@
       <c r="S910" t="s">
         <v>2231</v>
       </c>
-      <c r="V910" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z910" t="s">
         <v>2238</v>
       </c>
@@ -75943,9 +75745,6 @@
       <c r="Q930" t="s">
         <v>2229</v>
       </c>
-      <c r="V930" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z930" t="s">
         <v>2238</v>
       </c>
@@ -77628,9 +77427,6 @@
       <c r="L952" t="s">
         <v>2224</v>
       </c>
-      <c r="V952" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z952" t="s">
         <v>2238</v>
       </c>
@@ -78400,9 +78196,6 @@
       <c r="L963" t="s">
         <v>2224</v>
       </c>
-      <c r="V963" t="s">
-        <v>2234</v>
-      </c>
       <c r="Z963" t="s">
         <v>2238</v>
       </c>
@@ -83524,9 +83317,6 @@
       <c r="T1032" t="s">
         <v>2232</v>
       </c>
-      <c r="W1032" t="s">
-        <v>2235</v>
-      </c>
       <c r="X1032" t="s">
         <v>2236</v>
       </c>
@@ -84080,9 +83870,6 @@
       </c>
       <c r="S1039" t="s">
         <v>2231</v>
-      </c>
-      <c r="V1039" t="s">
-        <v>2234</v>
       </c>
       <c r="Z1039" t="s">
         <v>2238</v>
